--- a/helper/Car.xlsx
+++ b/helper/Car.xlsx
@@ -37,7 +37,7 @@
     <t>ES8</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>Norway,Germany,Sweden,Denmark,Netherlands</t>
